--- a/biology/Microbiologie/Acidobacteriales/Acidobacteriales.xlsx
+++ b/biology/Microbiologie/Acidobacteriales/Acidobacteriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acidobacteriales sont un ordre de bactéries de la division des Acidobacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 octobre 2020)[2], Catalogue of Life                                   (3 octobre 2020)[3], ITIS      (3 octobre 2020)[1], NCBI  (3 octobre 2020)[4] et World Register of Marine Species                               (3 octobre 2020)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 octobre 2020), Catalogue of Life                                   (3 octobre 2020), ITIS      (3 octobre 2020), NCBI  (3 octobre 2020) et World Register of Marine Species                               (3 octobre 2020) :
 famille des Acidobacteriaceae</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) T Cavalier-Smith, « The neomuran origin of archaebacteria, the negibacterial root of the universal tree and bacterial megaclassification. », International Journal of Systematic and Evolutionary Microbiology, vol. 52, no 1,‎ 1er janvier 2002, p. 7–76 (ISSN 1466-5026 et 1466-5034, DOI 10.1099/00207713-52-1-7, lire en ligne, consulté le 3 octobre 2020).
 </t>
